--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwenzhi/Documents/test_data/re_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwenzhi/doc_markdown/论文/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CA15F-34C7-0749-9F47-4EAE9BC1A10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E0084-0165-B84B-8E07-D9CE84DB05DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4080" windowWidth="27840" windowHeight="16940" xr2:uid="{84F353EE-94A1-0D4D-BCA4-862227BDE624}"/>
+    <workbookView xWindow="0" yWindow="4920" windowWidth="27840" windowHeight="16940" xr2:uid="{84F353EE-94A1-0D4D-BCA4-862227BDE624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,37 +119,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -164,7 +134,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -175,11 +145,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -339,7 +309,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -350,11 +320,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -602,10 +572,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -722,10 +689,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -759,13 +723,25 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79505991098938722"/>
+          <c:y val="0.28212937503182473"/>
+          <c:w val="0.19044733538742439"/>
+          <c:h val="0.28876888074175916"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -779,7 +755,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -811,12 +787,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1736,7 +1707,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
